--- a/src/test/java/testdata/datasourcechromium.xlsx
+++ b/src/test/java/testdata/datasourcechromium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26107"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205FAF27-1FB4-4417-806E-8E51088E0C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983074FA-72B3-46FA-88B4-1119EAECFB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -54,7 +54,10 @@
     <t>polapola@gmail.com</t>
   </si>
   <si>
-    <t>fafnirfafnir@gmail.com</t>
+    <t>fafnirfafnirl@gmail.com</t>
+  </si>
+  <si>
+    <t>pola</t>
   </si>
 </sst>
 </file>
@@ -422,8 +425,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +482,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -502,10 +505,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FA688-140F-4C43-A961-FC8FE6A2724D}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,6 +540,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/test/java/testdata/datasourcechromium.xlsx
+++ b/src/test/java/testdata/datasourcechromium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983074FA-72B3-46FA-88B4-1119EAECFB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A894F1C-112E-444F-B5F4-0C93902C8DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -482,7 +482,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -505,10 +505,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FA688-140F-4C43-A961-FC8FE6A2724D}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,26 +534,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
